--- a/docs/画面項目定義書/virtual_machine_management/virtual_machine_dashboard.xlsx
+++ b/docs/画面項目定義書/virtual_machine_management/virtual_machine_dashboard.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po723\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Kamata-Cloud-Infrastructure\docs\画面項目定義書\virtual_machine_management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BAA69EB-6B34-43E0-8C3C-1A5EE53759C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28E5F5F-33BB-4CBA-A998-A3C557A78C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3345" yWindow="3960" windowWidth="21600" windowHeight="11295" xr2:uid="{D5C0FF8B-188E-416F-8E83-FB552D8361D4}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{D5C0FF8B-188E-416F-8E83-FB552D8361D4}"/>
   </bookViews>
   <sheets>
     <sheet name="仮想マシンダッシュボード" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="48">
   <si>
     <t>日本工学院</t>
   </si>
@@ -361,6 +361,21 @@
   <si>
     <t>virtual_machine_dashboard</t>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>CPU使用率</t>
+  </si>
+  <si>
+    <t>数値（％表示）</t>
+  </si>
+  <si>
+    <t>0〜100%</t>
+  </si>
+  <si>
+    <t>リアルタイム/定期ポーリングによる使用率を表示</t>
+  </si>
+  <si>
+    <t>メモリ使用率</t>
   </si>
 </sst>
 </file>
@@ -1313,11 +1328,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16D0D6EF-4038-413F-A2F1-0B97FD7B8E5A}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22:F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="1.1000000000000001"/>
   <cols>
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="27.5" bestFit="1" customWidth="1"/>
@@ -1327,7 +1342,7 @@
     <col min="7" max="7" width="37.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1338,7 +1353,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1347,7 +1362,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A3" s="3"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -1356,7 +1371,7 @@
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
     </row>
-    <row r="4" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1365,7 +1380,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="37" t="s">
         <v>1</v>
       </c>
@@ -1378,7 +1393,7 @@
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="1.25">
       <c r="A6" s="39" t="s">
         <v>42</v>
       </c>
@@ -1391,7 +1406,7 @@
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A7" s="2"/>
       <c r="B7" s="10"/>
       <c r="C7" s="2"/>
@@ -1400,7 +1415,7 @@
       <c r="F7" s="20"/>
       <c r="G7" s="33"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
@@ -1423,7 +1438,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A9" s="5"/>
       <c r="B9" s="12" t="s">
         <v>12</v>
@@ -1438,7 +1453,7 @@
       <c r="F9" s="31"/>
       <c r="G9" s="35"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A10" s="6"/>
       <c r="B10" s="13" t="s">
         <v>40</v>
@@ -1451,7 +1466,7 @@
       <c r="F10" s="32"/>
       <c r="G10" s="36"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A11" s="6"/>
       <c r="B11" s="13" t="s">
         <v>14</v>
@@ -1468,7 +1483,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A12" s="5"/>
       <c r="B12" s="13" t="s">
         <v>18</v>
@@ -1485,7 +1500,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A13" s="6"/>
       <c r="B13" s="13" t="s">
         <v>19</v>
@@ -1502,7 +1517,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A14" s="6"/>
       <c r="B14" s="13" t="s">
         <v>20</v>
@@ -1519,7 +1534,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="24" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" ht="24.5" x14ac:dyDescent="1.1000000000000001">
       <c r="A15" s="5"/>
       <c r="B15" s="13" t="s">
         <v>27</v>
@@ -1536,7 +1551,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="24" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" ht="24.5" x14ac:dyDescent="1.1000000000000001">
       <c r="A16" s="6"/>
       <c r="B16" s="13" t="s">
         <v>28</v>
@@ -1553,7 +1568,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A17" s="5"/>
       <c r="B17" s="13" t="s">
         <v>29</v>
@@ -1570,7 +1585,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A18" s="6"/>
       <c r="B18" s="13" t="s">
         <v>30</v>
@@ -1587,7 +1602,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A19" s="6"/>
       <c r="B19" s="13" t="s">
         <v>33</v>
@@ -1602,7 +1617,7 @@
       <c r="F19" s="32"/>
       <c r="G19" s="36"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A20" s="6"/>
       <c r="B20" s="13" t="s">
         <v>36</v>
@@ -1619,7 +1634,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A21" s="6"/>
       <c r="B21" s="13" t="s">
         <v>37</v>
@@ -1636,25 +1651,41 @@
         <v>39</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A22" s="6"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="17"/>
+      <c r="B22" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="17" t="s">
+        <v>44</v>
+      </c>
       <c r="D22" s="22"/>
-      <c r="E22" s="29"/>
+      <c r="E22" s="29" t="s">
+        <v>45</v>
+      </c>
       <c r="F22" s="32"/>
-      <c r="G22" s="36"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G22" s="36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A23" s="6"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="17"/>
+      <c r="B23" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>44</v>
+      </c>
       <c r="D23" s="22"/>
-      <c r="E23" s="29"/>
+      <c r="E23" s="29" t="s">
+        <v>45</v>
+      </c>
       <c r="F23" s="32"/>
-      <c r="G23" s="36"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="G23" s="36" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A24" s="6"/>
       <c r="B24" s="13"/>
       <c r="C24" s="17"/>
@@ -1663,7 +1694,7 @@
       <c r="F24" s="32"/>
       <c r="G24" s="36"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A25" s="6"/>
       <c r="B25" s="13"/>
       <c r="C25" s="17"/>
@@ -1672,7 +1703,7 @@
       <c r="F25" s="32"/>
       <c r="G25" s="36"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A26" s="6"/>
       <c r="B26" s="13"/>
       <c r="C26" s="17"/>
@@ -1681,7 +1712,7 @@
       <c r="F26" s="32"/>
       <c r="G26" s="36"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A27" s="6"/>
       <c r="B27" s="13"/>
       <c r="C27" s="17"/>
@@ -1690,7 +1721,7 @@
       <c r="F27" s="32"/>
       <c r="G27" s="36"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A28" s="6"/>
       <c r="B28" s="13"/>
       <c r="C28" s="17"/>
@@ -1699,7 +1730,7 @@
       <c r="F28" s="32"/>
       <c r="G28" s="36"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>

--- a/docs/画面項目定義書/virtual_machine_management/virtual_machine_dashboard.xlsx
+++ b/docs/画面項目定義書/virtual_machine_management/virtual_machine_dashboard.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Kamata-Cloud-Infrastructure\docs\画面項目定義書\virtual_machine_management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conta\Documents\git\Kamata-Cloud-Infrastructure\docs\画面項目定義書\virtual_machine_management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C28E5F5F-33BB-4CBA-A998-A3C557A78C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C6F199-11A0-4393-8B6D-AFF849CC2E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{D5C0FF8B-188E-416F-8E83-FB552D8361D4}"/>
+    <workbookView xWindow="7170" yWindow="4635" windowWidth="21600" windowHeight="12645" xr2:uid="{D5C0FF8B-188E-416F-8E83-FB552D8361D4}"/>
   </bookViews>
   <sheets>
     <sheet name="仮想マシンダッシュボード" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
   <si>
     <t>日本工学院</t>
   </si>
@@ -158,16 +158,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>仮想マシンオブジェクトより</t>
-  </si>
-  <si>
-    <t>仮想マシンオブジェクトより</t>
-    <rPh sb="0" eb="2">
-      <t>カソウ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>仮想マシンオブジェクトを取得し、繰り返し表示</t>
   </si>
   <si>
@@ -359,23 +349,23 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>virtual_machine_dashboard</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>CPU使用率</t>
   </si>
   <si>
     <t>数値（％表示）</t>
   </si>
   <si>
-    <t>0〜100%</t>
-  </si>
-  <si>
     <t>リアルタイム/定期ポーリングによる使用率を表示</t>
   </si>
   <si>
     <t>メモリ使用率</t>
+  </si>
+  <si>
+    <t>仮想マシンエンティティより</t>
+    <rPh sb="0" eb="2">
+      <t>カソウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
@@ -1329,10 +1319,10 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22:F23"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="1.1000000000000001"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="27.5" bestFit="1" customWidth="1"/>
@@ -1342,7 +1332,7 @@
     <col min="7" max="7" width="37.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1353,7 +1343,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1362,7 +1352,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -1371,7 +1361,7 @@
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
     </row>
-    <row r="4" spans="1:7" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1380,7 +1370,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="37" t="s">
         <v>1</v>
       </c>
@@ -1393,9 +1383,9 @@
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="1.25">
+    <row r="6" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="39" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="B6" s="40"/>
       <c r="C6" s="15" t="s">
@@ -1406,7 +1396,7 @@
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="1.1000000000000001">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>
       <c r="B7" s="10"/>
       <c r="C7" s="2"/>
@@ -1415,7 +1405,7 @@
       <c r="F7" s="20"/>
       <c r="G7" s="33"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="1.1000000000000001">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
@@ -1438,7 +1428,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="1.1000000000000001">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="5"/>
       <c r="B9" s="12" t="s">
         <v>12</v>
@@ -1453,20 +1443,20 @@
       <c r="F9" s="31"/>
       <c r="G9" s="35"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="1.1000000000000001">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="6"/>
       <c r="B10" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="22"/>
       <c r="E10" s="29" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F10" s="32"/>
       <c r="G10" s="36"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="1.1000000000000001">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="6"/>
       <c r="B11" s="13" t="s">
         <v>14</v>
@@ -1483,7 +1473,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="1.1000000000000001">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="5"/>
       <c r="B12" s="13" t="s">
         <v>18</v>
@@ -1493,14 +1483,14 @@
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="29" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="F12" s="32"/>
       <c r="G12" s="36" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="1.1000000000000001">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="6"/>
       <c r="B13" s="13" t="s">
         <v>19</v>
@@ -1510,14 +1500,14 @@
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="29" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="F13" s="32"/>
       <c r="G13" s="36" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="1.1000000000000001">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="6"/>
       <c r="B14" s="13" t="s">
         <v>20</v>
@@ -1527,17 +1517,17 @@
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="29" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="F14" s="32"/>
       <c r="G14" s="36" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="24.5" x14ac:dyDescent="1.1000000000000001">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="24" x14ac:dyDescent="0.4">
       <c r="A15" s="5"/>
       <c r="B15" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>15</v>
@@ -1548,144 +1538,144 @@
       </c>
       <c r="F15" s="32"/>
       <c r="G15" s="36" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="24.5" x14ac:dyDescent="1.1000000000000001">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="24" x14ac:dyDescent="0.4">
       <c r="A16" s="6"/>
       <c r="B16" s="13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C16" s="17" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F16" s="32"/>
       <c r="G16" s="36" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="1.1000000000000001">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="5"/>
       <c r="B17" s="13" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F17" s="32"/>
       <c r="G17" s="36" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="1.1000000000000001">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="6"/>
       <c r="B18" s="13" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F18" s="32"/>
       <c r="G18" s="36" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="1.1000000000000001">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="6"/>
       <c r="B19" s="13" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="29" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F19" s="32"/>
       <c r="G19" s="36"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="1.1000000000000001">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A20" s="6"/>
       <c r="B20" s="13" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="29" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F20" s="32"/>
       <c r="G20" s="36" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="1.1000000000000001">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="6"/>
       <c r="B21" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F21" s="32"/>
       <c r="G21" s="36" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="1.1000000000000001">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="6"/>
       <c r="B22" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" s="32"/>
       <c r="G22" s="36" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="1.1000000000000001">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="6"/>
       <c r="B23" s="13" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="29" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" s="32"/>
       <c r="G23" s="36" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="1.1000000000000001">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A24" s="6"/>
       <c r="B24" s="13"/>
       <c r="C24" s="17"/>
@@ -1694,7 +1684,7 @@
       <c r="F24" s="32"/>
       <c r="G24" s="36"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="1.1000000000000001">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A25" s="6"/>
       <c r="B25" s="13"/>
       <c r="C25" s="17"/>
@@ -1703,7 +1693,7 @@
       <c r="F25" s="32"/>
       <c r="G25" s="36"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="1.1000000000000001">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A26" s="6"/>
       <c r="B26" s="13"/>
       <c r="C26" s="17"/>
@@ -1712,7 +1702,7 @@
       <c r="F26" s="32"/>
       <c r="G26" s="36"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="1.1000000000000001">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A27" s="6"/>
       <c r="B27" s="13"/>
       <c r="C27" s="17"/>
@@ -1721,7 +1711,7 @@
       <c r="F27" s="32"/>
       <c r="G27" s="36"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="1.1000000000000001">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="6"/>
       <c r="B28" s="13"/>
       <c r="C28" s="17"/>
@@ -1730,7 +1720,7 @@
       <c r="F28" s="32"/>
       <c r="G28" s="36"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>

--- a/docs/画面項目定義書/virtual_machine_management/virtual_machine_dashboard.xlsx
+++ b/docs/画面項目定義書/virtual_machine_management/virtual_machine_dashboard.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conta\Documents\git\Kamata-Cloud-Infrastructure\docs\画面項目定義書\virtual_machine_management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kouga\OneDrive\ドキュメント\GitHub\Kamata-Cloud-Infrastructure\docs\画面項目定義書\virtual_machine_management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C6F199-11A0-4393-8B6D-AFF849CC2E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE4DD601-2649-4351-A009-596269609863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7170" yWindow="4635" windowWidth="21600" windowHeight="12645" xr2:uid="{D5C0FF8B-188E-416F-8E83-FB552D8361D4}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{D5C0FF8B-188E-416F-8E83-FB552D8361D4}"/>
   </bookViews>
   <sheets>
     <sheet name="仮想マシンダッシュボード" sheetId="1" r:id="rId1"/>
@@ -161,22 +161,6 @@
     <t>仮想マシンオブジェクトを取得し、繰り返し表示</t>
   </si>
   <si>
-    <t>仮想マシンオブジェクトを取得し、繰り返し表示</t>
-    <rPh sb="12" eb="14">
-      <t>シュトク</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="18" eb="19">
-      <t>カエ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>繰り返し表示、押下時編集ボタン、一時停止ボタン、削除ボタンを表示</t>
     <rPh sb="0" eb="1">
       <t>ク</t>
@@ -364,6 +348,29 @@
     <t>仮想マシンエンティティより</t>
     <rPh sb="0" eb="2">
       <t>カソウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>仮想マシンオブジェクトを取得し、繰り返し表示
+押下時、virtual_machine_detailへ遷移</t>
+    <rPh sb="12" eb="14">
+      <t>シュトク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="23" eb="26">
+      <t>オウカジ</t>
+    </rPh>
+    <rPh sb="50" eb="52">
+      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -1318,21 +1325,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16D0D6EF-4038-413F-A2F1-0B97FD7B8E5A}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="27.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
     <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.625" customWidth="1"/>
+    <col min="6" max="6" width="39.58203125" customWidth="1"/>
     <col min="7" max="7" width="37.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1343,7 +1350,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1352,7 +1359,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -1361,7 +1368,7 @@
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
     </row>
-    <row r="4" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="19" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1370,7 +1377,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="37" t="s">
         <v>1</v>
       </c>
@@ -1383,7 +1390,7 @@
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A6" s="39" t="s">
         <v>10</v>
       </c>
@@ -1396,7 +1403,7 @@
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2"/>
       <c r="B7" s="10"/>
       <c r="C7" s="2"/>
@@ -1405,7 +1412,7 @@
       <c r="F7" s="20"/>
       <c r="G7" s="33"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
@@ -1428,7 +1435,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="5"/>
       <c r="B9" s="12" t="s">
         <v>12</v>
@@ -1443,20 +1450,20 @@
       <c r="F9" s="31"/>
       <c r="G9" s="35"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="6"/>
       <c r="B10" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="22"/>
       <c r="E10" s="29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F10" s="32"/>
       <c r="G10" s="36"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="6"/>
       <c r="B11" s="13" t="s">
         <v>14</v>
@@ -1473,7 +1480,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="5"/>
       <c r="B12" s="13" t="s">
         <v>18</v>
@@ -1483,14 +1490,14 @@
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" s="32"/>
       <c r="G12" s="36" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="6"/>
       <c r="B13" s="13" t="s">
         <v>19</v>
@@ -1500,14 +1507,14 @@
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" s="32"/>
       <c r="G13" s="36" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="6"/>
       <c r="B14" s="13" t="s">
         <v>20</v>
@@ -1517,17 +1524,17 @@
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" s="32"/>
       <c r="G14" s="36" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="24" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="5"/>
       <c r="B15" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>15</v>
@@ -1538,144 +1545,144 @@
       </c>
       <c r="F15" s="32"/>
       <c r="G15" s="36" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="24" x14ac:dyDescent="0.4">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="24" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="6"/>
       <c r="B16" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="17" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F16" s="32"/>
       <c r="G16" s="36" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="5"/>
       <c r="B17" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F17" s="32"/>
       <c r="G17" s="36" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="6"/>
       <c r="B18" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F18" s="32"/>
       <c r="G18" s="36" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="6"/>
       <c r="B19" s="13" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F19" s="32"/>
       <c r="G19" s="36"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="6"/>
       <c r="B20" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="29" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F20" s="32"/>
       <c r="G20" s="36" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="6"/>
       <c r="B21" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F21" s="32"/>
       <c r="G21" s="36" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="6"/>
       <c r="B22" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="17" t="s">
         <v>40</v>
-      </c>
-      <c r="C22" s="17" t="s">
-        <v>41</v>
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" s="32"/>
       <c r="G22" s="36" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="6"/>
       <c r="B23" s="13" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" s="32"/>
       <c r="G23" s="36" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="6"/>
       <c r="B24" s="13"/>
       <c r="C24" s="17"/>
@@ -1684,7 +1691,7 @@
       <c r="F24" s="32"/>
       <c r="G24" s="36"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="6"/>
       <c r="B25" s="13"/>
       <c r="C25" s="17"/>
@@ -1693,7 +1700,7 @@
       <c r="F25" s="32"/>
       <c r="G25" s="36"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="6"/>
       <c r="B26" s="13"/>
       <c r="C26" s="17"/>
@@ -1702,7 +1709,7 @@
       <c r="F26" s="32"/>
       <c r="G26" s="36"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="6"/>
       <c r="B27" s="13"/>
       <c r="C27" s="17"/>
@@ -1711,7 +1718,7 @@
       <c r="F27" s="32"/>
       <c r="G27" s="36"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="6"/>
       <c r="B28" s="13"/>
       <c r="C28" s="17"/>
@@ -1720,7 +1727,7 @@
       <c r="F28" s="32"/>
       <c r="G28" s="36"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" s="7"/>
       <c r="B29" s="7"/>
       <c r="C29" s="7"/>

--- a/docs/画面項目定義書/virtual_machine_management/virtual_machine_dashboard.xlsx
+++ b/docs/画面項目定義書/virtual_machine_management/virtual_machine_dashboard.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\conta\Documents\git\Kamata-Cloud-Infrastructure\docs\画面項目定義書\virtual_machine_management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Kamata-Cloud-Infrastructure\docs\画面項目定義書\virtual_machine_management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85C6F199-11A0-4393-8B6D-AFF849CC2E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12F6643-F496-415E-9772-91C46646B09B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7170" yWindow="4635" windowWidth="21600" windowHeight="12645" xr2:uid="{D5C0FF8B-188E-416F-8E83-FB552D8361D4}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{D5C0FF8B-188E-416F-8E83-FB552D8361D4}"/>
   </bookViews>
   <sheets>
     <sheet name="仮想マシンダッシュボード" sheetId="1" r:id="rId1"/>
@@ -114,19 +114,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>仮想マシン作成モーダルを表示</t>
-    <rPh sb="0" eb="2">
-      <t>カソウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>サクセイ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>仮想マシン名</t>
     <rPh sb="0" eb="2">
       <t>カソウ</t>
@@ -243,40 +230,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>繰り返し表示、押下時仮想マシン詳細/編集画面へ遷移</t>
-    <rPh sb="0" eb="1">
-      <t>ク</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>カエ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヒョウジ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>オウカ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>カソウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>ショウサイ</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>ヘンシュウ</t>
-    </rPh>
-    <rPh sb="20" eb="22">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="23" eb="25">
-      <t>センイ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>確認ポップアップ</t>
     <rPh sb="0" eb="2">
       <t>カクニン</t>
@@ -364,6 +317,35 @@
     <t>仮想マシンエンティティより</t>
     <rPh sb="0" eb="2">
       <t>カソウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>mo_virtual_machine_create.htmlを表示</t>
+    <rPh sb="31" eb="33">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>繰り返し表示、押下時virtual_machine_detail.htmlへ遷移</t>
+    <rPh sb="0" eb="1">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カエ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>オウカ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="38" eb="40">
+      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -932,21 +914,21 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Text Box 3">
+        <xdr:cNvPr id="2" name="Text Box 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F957BE9-F765-47AA-89AD-B2985BE61292}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B6A501A-7B98-48A0-A6BC-4A4AF8CF46B1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -956,8 +938,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5962650" y="7086600"/>
-          <a:ext cx="5057775" cy="171450"/>
+          <a:off x="7070725" y="6623050"/>
+          <a:ext cx="5848350" cy="228600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1316,13 +1298,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16D0D6EF-4038-413F-A2F1-0B97FD7B8E5A}">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="1.1000000000000001"/>
   <cols>
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="27.5" bestFit="1" customWidth="1"/>
@@ -1332,7 +1314,7 @@
     <col min="7" max="7" width="37.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1343,7 +1325,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1352,7 +1334,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A3" s="3"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -1361,7 +1343,7 @@
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
     </row>
-    <row r="4" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1370,7 +1352,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="37" t="s">
         <v>1</v>
       </c>
@@ -1383,7 +1365,7 @@
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="1.25">
       <c r="A6" s="39" t="s">
         <v>10</v>
       </c>
@@ -1396,7 +1378,7 @@
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A7" s="2"/>
       <c r="B7" s="10"/>
       <c r="C7" s="2"/>
@@ -1405,7 +1387,7 @@
       <c r="F7" s="20"/>
       <c r="G7" s="33"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="1.1000000000000001">
       <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
@@ -1428,8 +1410,10 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A9" s="5"/>
+    <row r="9" spans="1:7" x14ac:dyDescent="1.1000000000000001">
+      <c r="A9" s="5">
+        <v>1</v>
+      </c>
       <c r="B9" s="12" t="s">
         <v>12</v>
       </c>
@@ -1443,21 +1427,25 @@
       <c r="F9" s="31"/>
       <c r="G9" s="35"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A10" s="6"/>
+    <row r="10" spans="1:7" x14ac:dyDescent="1.1000000000000001">
+      <c r="A10" s="6">
+        <v>2</v>
+      </c>
       <c r="B10" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="22"/>
       <c r="E10" s="29" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F10" s="32"/>
       <c r="G10" s="36"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A11" s="6"/>
+    <row r="11" spans="1:7" x14ac:dyDescent="1.1000000000000001">
+      <c r="A11" s="5">
+        <v>3</v>
+      </c>
       <c r="B11" s="13" t="s">
         <v>14</v>
       </c>
@@ -1470,264 +1458,243 @@
       </c>
       <c r="F11" s="32"/>
       <c r="G11" s="36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="1.1000000000000001">
+      <c r="A12" s="6">
+        <v>4</v>
+      </c>
+      <c r="B12" s="13" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A12" s="5"/>
-      <c r="B12" s="13" t="s">
-        <v>18</v>
       </c>
       <c r="C12" s="17" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F12" s="32"/>
       <c r="G12" s="36" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A13" s="6"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="1.1000000000000001">
+      <c r="A13" s="5">
+        <v>5</v>
+      </c>
       <c r="B13" s="13" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C13" s="17" t="s">
         <v>13</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F13" s="32"/>
       <c r="G13" s="36" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A14" s="6"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="1.1000000000000001">
+      <c r="A14" s="6">
+        <v>6</v>
+      </c>
       <c r="B14" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C14" s="17" t="s">
         <v>13</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F14" s="32"/>
       <c r="G14" s="36" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="24" x14ac:dyDescent="0.4">
-      <c r="A15" s="5"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="24.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="A15" s="5">
+        <v>7</v>
+      </c>
       <c r="B15" s="13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C15" s="17" t="s">
         <v>15</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="29" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F15" s="32"/>
       <c r="G15" s="36" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="24" x14ac:dyDescent="0.4">
-      <c r="A16" s="6"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="24.5" x14ac:dyDescent="1.1000000000000001">
+      <c r="A16" s="6">
+        <v>8</v>
+      </c>
       <c r="B16" s="13" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C16" s="17" t="s">
         <v>15</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F16" s="32"/>
       <c r="G16" s="36" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A17" s="5"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="1.1000000000000001">
+      <c r="A17" s="5">
+        <v>9</v>
+      </c>
       <c r="B17" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C17" s="17" t="s">
         <v>15</v>
       </c>
       <c r="D17" s="17"/>
       <c r="E17" s="29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F17" s="32"/>
       <c r="G17" s="36" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A18" s="6"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="1.1000000000000001">
+      <c r="A18" s="6">
+        <v>10</v>
+      </c>
       <c r="B18" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C18" s="17" t="s">
         <v>15</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F18" s="32"/>
       <c r="G18" s="36" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A19" s="6"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="1.1000000000000001">
+      <c r="A19" s="5">
+        <v>11</v>
+      </c>
       <c r="B19" s="13" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>13</v>
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="29" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F19" s="32"/>
       <c r="G19" s="36"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A20" s="6"/>
+    <row r="20" spans="1:7" x14ac:dyDescent="1.1000000000000001">
+      <c r="A20" s="6">
+        <v>12</v>
+      </c>
       <c r="B20" s="13" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="29" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F20" s="32"/>
       <c r="G20" s="36" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A21" s="6"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="1.1000000000000001">
+      <c r="A21" s="5">
+        <v>13</v>
+      </c>
       <c r="B21" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>15</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="29" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F21" s="32"/>
       <c r="G21" s="36" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A22" s="6"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="1.1000000000000001">
+      <c r="A22" s="6">
+        <v>14</v>
+      </c>
       <c r="B22" s="13" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F22" s="32"/>
       <c r="G22" s="36" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A23" s="6"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="1.1000000000000001">
+      <c r="A23" s="5">
+        <v>15</v>
+      </c>
       <c r="B23" s="13" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C23" s="17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D23" s="22"/>
       <c r="E23" s="29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F23" s="32"/>
       <c r="G23" s="36" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A24" s="6"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="36"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A25" s="6"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="17"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="36"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A26" s="6"/>
-      <c r="B26" s="13"/>
-      <c r="C26" s="17"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="32"/>
-      <c r="G26" s="36"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A27" s="6"/>
-      <c r="B27" s="13"/>
-      <c r="C27" s="17"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="32"/>
-      <c r="G27" s="36"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A28" s="6"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="17"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="32"/>
-      <c r="G28" s="36"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A24" s="7"/>
+      <c r="B24" s="7"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/docs/画面項目定義書/virtual_machine_management/virtual_machine_dashboard.xlsx
+++ b/docs/画面項目定義書/virtual_machine_management/virtual_machine_dashboard.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Kamata-Cloud-Infrastructure\docs\画面項目定義書\virtual_machine_management\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kamata-Cloud-Infrastructure\docs\画面項目定義書\virtual_machine_management\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A12F6643-F496-415E-9772-91C46646B09B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B08366A3-C9D2-47E7-87CA-6BFCDE09C98C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{D5C0FF8B-188E-416F-8E83-FB552D8361D4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D5C0FF8B-188E-416F-8E83-FB552D8361D4}"/>
   </bookViews>
   <sheets>
     <sheet name="仮想マシンダッシュボード" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="46">
   <si>
     <t>日本工学院</t>
   </si>
@@ -346,6 +346,25 @@
     </rPh>
     <rPh sb="38" eb="40">
       <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>該当仮想マシンエンティティを削除し、確認ポップアップを非表示</t>
+    <rPh sb="0" eb="2">
+      <t>ガイトウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カソウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="27" eb="30">
+      <t>ヒヒョウジ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -1301,10 +1320,10 @@
   <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="1.1000000000000001"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="2" max="2" width="23" customWidth="1"/>
     <col min="3" max="3" width="27.5" bestFit="1" customWidth="1"/>
@@ -1314,7 +1333,7 @@
     <col min="7" max="7" width="37.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1325,7 +1344,7 @@
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
     </row>
-    <row r="2" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="2" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1334,7 +1353,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3"/>
       <c r="B3" s="9"/>
       <c r="C3" s="9"/>
@@ -1343,7 +1362,7 @@
       <c r="F3" s="18"/>
       <c r="G3" s="18"/>
     </row>
-    <row r="4" spans="1:7" ht="19.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:7" ht="20.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -1352,7 +1371,7 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="37" t="s">
         <v>1</v>
       </c>
@@ -1365,7 +1384,7 @@
       <c r="F5" s="14"/>
       <c r="G5" s="14"/>
     </row>
-    <row r="6" spans="1:7" ht="18.75" thickBot="1" x14ac:dyDescent="1.25">
+    <row r="6" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A6" s="39" t="s">
         <v>10</v>
       </c>
@@ -1378,7 +1397,7 @@
       <c r="F6" s="19"/>
       <c r="G6" s="19"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="1.1000000000000001">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="2"/>
       <c r="B7" s="10"/>
       <c r="C7" s="2"/>
@@ -1387,7 +1406,7 @@
       <c r="F7" s="20"/>
       <c r="G7" s="33"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="1.1000000000000001">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="4" t="s">
         <v>3</v>
       </c>
@@ -1410,7 +1429,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="1.1000000000000001">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="5">
         <v>1</v>
       </c>
@@ -1427,7 +1446,7 @@
       <c r="F9" s="31"/>
       <c r="G9" s="35"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="1.1000000000000001">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="6">
         <v>2</v>
       </c>
@@ -1442,7 +1461,7 @@
       <c r="F10" s="32"/>
       <c r="G10" s="36"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="1.1000000000000001">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="5">
         <v>3</v>
       </c>
@@ -1461,7 +1480,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="1.1000000000000001">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="6">
         <v>4</v>
       </c>
@@ -1480,7 +1499,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="1.1000000000000001">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="5">
         <v>5</v>
       </c>
@@ -1499,7 +1518,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="1.1000000000000001">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="6">
         <v>6</v>
       </c>
@@ -1518,7 +1537,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="24.5" x14ac:dyDescent="1.1000000000000001">
+    <row r="15" spans="1:7" ht="24" x14ac:dyDescent="0.4">
       <c r="A15" s="5">
         <v>7</v>
       </c>
@@ -1537,7 +1556,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="24.5" x14ac:dyDescent="1.1000000000000001">
+    <row r="16" spans="1:7" ht="24" x14ac:dyDescent="0.4">
       <c r="A16" s="6">
         <v>8</v>
       </c>
@@ -1556,7 +1575,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="1.1000000000000001">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A17" s="5">
         <v>9</v>
       </c>
@@ -1575,7 +1594,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="1.1000000000000001">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A18" s="6">
         <v>10</v>
       </c>
@@ -1594,7 +1613,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="1.1000000000000001">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A19" s="5">
         <v>11</v>
       </c>
@@ -1611,7 +1630,7 @@
       <c r="F19" s="32"/>
       <c r="G19" s="36"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="1.1000000000000001">
+    <row r="20" spans="1:7" ht="24" x14ac:dyDescent="0.4">
       <c r="A20" s="6">
         <v>12</v>
       </c>
@@ -1627,10 +1646,10 @@
       </c>
       <c r="F20" s="32"/>
       <c r="G20" s="36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="1.1000000000000001">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A21" s="5">
         <v>13</v>
       </c>
@@ -1649,7 +1668,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="1.1000000000000001">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A22" s="6">
         <v>14</v>
       </c>
@@ -1668,7 +1687,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="1.1000000000000001">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A23" s="5">
         <v>15</v>
       </c>
@@ -1687,7 +1706,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A24" s="7"/>
       <c r="B24" s="7"/>
       <c r="C24" s="7"/>
